--- a/test/Log_OnlyOneHeaderRow.xlsx
+++ b/test/Log_OnlyOneHeaderRow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBB226-DFEB-41B5-8779-50C1FC4EB6DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059C072-7E3B-4D10-9907-8A38335B8305}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Time</t>
   </si>
@@ -98,6 +98,30 @@
   </si>
   <si>
     <t>2020-03-29 10:22:29.178</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:23:52.977</t>
+  </si>
+  <si>
+    <t>Safety edge triggered</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:23:52.427</t>
+  </si>
+  <si>
+    <t>Door is closing and is at or below 50 mm from fully closed position</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:23:43.162</t>
+  </si>
+  <si>
+    <t>Door closing</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:23:42.596</t>
+  </si>
+  <si>
+    <t>Door has begun to close</t>
   </si>
 </sst>
 </file>
@@ -132,7 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,92 +487,92 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -561,77 +586,77 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -640,6 +665,62 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
